--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.111020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Fall.111020.xlsx_with_dialog_acts.xlsx
@@ -1819,12 +1819,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3163,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5979,12 +5979,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6021,12 +6021,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7973,12 +7973,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8141,12 +8141,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8309,12 +8309,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9653,12 +9653,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10417,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11135,12 +11135,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11345,12 +11345,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11471,12 +11471,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11725,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11937,12 +11937,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11979,12 +11979,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12235,12 +12235,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12277,12 +12277,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12361,12 +12361,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12617,12 +12617,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12785,12 +12785,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12951,12 +12951,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13417,12 +13417,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13459,12 +13459,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13669,12 +13669,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13753,12 +13753,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14303,12 +14303,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14429,12 +14429,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15563,12 +15563,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15773,12 +15773,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16067,12 +16067,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16571,12 +16571,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17755,12 +17755,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17795,12 +17795,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18035,12 +18035,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18075,12 +18075,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19199,12 +19199,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19759,12 +19759,12 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19839,12 +19839,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19879,12 +19879,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19919,12 +19919,12 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19999,12 +19999,12 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20079,12 +20079,12 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20119,12 +20119,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20159,12 +20159,12 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20727,12 +20727,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20767,12 +20767,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21689,12 +21689,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21729,12 +21729,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21969,12 +21969,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22169,12 +22169,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22289,12 +22289,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22977,12 +22977,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23257,12 +23257,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23337,12 +23337,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23541,12 +23541,12 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23661,12 +23661,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23861,12 +23861,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24585,12 +24585,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24785,12 +24785,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25105,12 +25105,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25825,12 +25825,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26229,12 +26229,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26509,12 +26509,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26589,12 +26589,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27627,12 +27627,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28713,12 +28713,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28793,12 +28793,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29277,12 +29277,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29755,12 +29755,12 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29999,12 +29999,12 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30039,12 +30039,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30199,12 +30199,12 @@
       <c r="H722" t="inlineStr"/>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30561,12 +30561,12 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30681,12 +30681,12 @@
       <c r="H734" t="inlineStr"/>
       <c r="I734" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30765,12 +30765,12 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30805,12 +30805,12 @@
       <c r="H737" t="inlineStr"/>
       <c r="I737" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32447,12 +32447,12 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32645,12 +32645,12 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33049,12 +33049,12 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34009,12 +34009,12 @@
       <c r="H817" t="inlineStr"/>
       <c r="I817" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34529,12 +34529,12 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35169,12 +35169,12 @@
       <c r="H846" t="inlineStr"/>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35209,12 +35209,12 @@
       <c r="H847" t="inlineStr"/>
       <c r="I847" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35649,12 +35649,12 @@
       <c r="H858" t="inlineStr"/>
       <c r="I858" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35689,12 +35689,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
